--- a/data/registration_data.xlsx
+++ b/data/registration_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rauf\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220DA673-5CD1-45F6-8513-E19E8995EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A76025-5256-4248-AE4B-2D5B3470E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="284">
   <si>
     <t>no</t>
   </si>
@@ -160,15 +160,9 @@
     <t>Agus Susilo</t>
   </si>
   <si>
-    <t>Joko Pratiwi</t>
-  </si>
-  <si>
     <t>Siti Hermawan</t>
   </si>
   <si>
-    <t>Budi Santoso</t>
-  </si>
-  <si>
     <t>Joko Susilo</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Rini Santoso</t>
   </si>
   <si>
-    <t>1983-11-12</t>
-  </si>
-  <si>
     <t>Joko Wati</t>
   </si>
   <si>
@@ -292,285 +283,12 @@
     <t>1980-10-14</t>
   </si>
   <si>
-    <t>rini.wati115</t>
-  </si>
-  <si>
-    <t>887424608043</t>
-  </si>
-  <si>
-    <t>1998-04-13</t>
-  </si>
-  <si>
-    <t>376682388606370437</t>
-  </si>
-  <si>
-    <t>budi.hermawan149</t>
-  </si>
-  <si>
-    <t>896951735296</t>
-  </si>
-  <si>
-    <t>1983-08-14</t>
-  </si>
-  <si>
-    <t>370485567768052386</t>
-  </si>
-  <si>
-    <t>dewi.wati453</t>
-  </si>
-  <si>
-    <t>840360516287</t>
-  </si>
-  <si>
-    <t>1984-10-06</t>
-  </si>
-  <si>
-    <t>376644932512681962</t>
-  </si>
-  <si>
-    <t>agus.pratiwi446</t>
-  </si>
-  <si>
-    <t>876902944959</t>
-  </si>
-  <si>
-    <t>1991-06-19</t>
-  </si>
-  <si>
-    <t>373278778239863940</t>
-  </si>
-  <si>
-    <t>siti.pratiwi126</t>
-  </si>
-  <si>
-    <t>891205691802</t>
-  </si>
-  <si>
-    <t>1984-02-16</t>
-  </si>
-  <si>
-    <t>377678255322784000</t>
-  </si>
-  <si>
-    <t>budi.santoso667</t>
-  </si>
-  <si>
-    <t>845151515009</t>
-  </si>
-  <si>
-    <t>1990-02-27</t>
-  </si>
-  <si>
-    <t>373416429912706588</t>
-  </si>
-  <si>
-    <t>joko.pratiwi233</t>
-  </si>
-  <si>
-    <t>884306898621</t>
-  </si>
-  <si>
-    <t>372710873556617223</t>
-  </si>
-  <si>
-    <t>rini.hermawan732</t>
-  </si>
-  <si>
-    <t>805580492513</t>
-  </si>
-  <si>
-    <t>1984-10-02</t>
-  </si>
-  <si>
-    <t>379359809865972649</t>
-  </si>
-  <si>
-    <t>dewi.susilo982</t>
-  </si>
-  <si>
-    <t>823707005089</t>
-  </si>
-  <si>
-    <t>1992-03-19</t>
-  </si>
-  <si>
-    <t>371884537800690715</t>
-  </si>
-  <si>
-    <t>dewi.pratiwi442</t>
-  </si>
-  <si>
-    <t>806550563699</t>
-  </si>
-  <si>
-    <t>1986-09-24</t>
-  </si>
-  <si>
-    <t>372626832939681051</t>
-  </si>
-  <si>
     <t>Budi Wati</t>
   </si>
   <si>
-    <t>siti.santoso335</t>
-  </si>
-  <si>
-    <t>896387173590</t>
-  </si>
-  <si>
-    <t>1992-01-05</t>
-  </si>
-  <si>
-    <t>376885958010344974</t>
-  </si>
-  <si>
-    <t>siti.susilo602</t>
-  </si>
-  <si>
-    <t>809538940823</t>
-  </si>
-  <si>
-    <t>2000-11-13</t>
-  </si>
-  <si>
-    <t>379549942704907346</t>
-  </si>
-  <si>
     <t>Dewi Lestari</t>
   </si>
   <si>
-    <t>joko.wati651</t>
-  </si>
-  <si>
-    <t>879356564699</t>
-  </si>
-  <si>
-    <t>1998-06-21</t>
-  </si>
-  <si>
-    <t>376115789753084982</t>
-  </si>
-  <si>
-    <t>dewi.hermawan105</t>
-  </si>
-  <si>
-    <t>835592465386</t>
-  </si>
-  <si>
-    <t>1993-03-08</t>
-  </si>
-  <si>
-    <t>371912271656676878</t>
-  </si>
-  <si>
-    <t>joko.lestari959</t>
-  </si>
-  <si>
-    <t>859918099395</t>
-  </si>
-  <si>
-    <t>1985-10-01</t>
-  </si>
-  <si>
-    <t>375617747930146141</t>
-  </si>
-  <si>
-    <t>agus.lestari523</t>
-  </si>
-  <si>
-    <t>890117321806</t>
-  </si>
-  <si>
-    <t>1989-06-06</t>
-  </si>
-  <si>
-    <t>374759646585392414</t>
-  </si>
-  <si>
-    <t>rini.susilo188</t>
-  </si>
-  <si>
-    <t>841425635947</t>
-  </si>
-  <si>
-    <t>1992-03-07</t>
-  </si>
-  <si>
-    <t>377328546782166724</t>
-  </si>
-  <si>
-    <t>budi.wati092</t>
-  </si>
-  <si>
-    <t>818336504943</t>
-  </si>
-  <si>
-    <t>1999-07-27</t>
-  </si>
-  <si>
-    <t>375621532323351474</t>
-  </si>
-  <si>
-    <t>agus.santoso755</t>
-  </si>
-  <si>
-    <t>880176850239</t>
-  </si>
-  <si>
-    <t>1998-04-19</t>
-  </si>
-  <si>
-    <t>376320382127530701</t>
-  </si>
-  <si>
-    <t>budi.hermawan813</t>
-  </si>
-  <si>
-    <t>826926491456</t>
-  </si>
-  <si>
-    <t>1999-06-25</t>
-  </si>
-  <si>
-    <t>374390590005655560</t>
-  </si>
-  <si>
-    <t>budi.susilo953</t>
-  </si>
-  <si>
-    <t>811742883329</t>
-  </si>
-  <si>
-    <t>1990-07-22</t>
-  </si>
-  <si>
-    <t>372018960416956509</t>
-  </si>
-  <si>
-    <t>siti.hermawan717</t>
-  </si>
-  <si>
-    <t>899362251221</t>
-  </si>
-  <si>
-    <t>2000-01-02</t>
-  </si>
-  <si>
-    <t>375106408206178194</t>
-  </si>
-  <si>
-    <t>agus.hermawan791</t>
-  </si>
-  <si>
-    <t>805843545118</t>
-  </si>
-  <si>
-    <t>1981-12-21</t>
-  </si>
-  <si>
-    <t>377679483314418498</t>
-  </si>
-  <si>
     <t>dewi.susilo317</t>
   </si>
   <si>
@@ -1142,6 +860,24 @@
   </si>
   <si>
     <t>agus.hermawan608</t>
+  </si>
+  <si>
+    <t>GINANJAR</t>
+  </si>
+  <si>
+    <t>nandadaffa92</t>
+  </si>
+  <si>
+    <t>1982-05-25</t>
+  </si>
+  <si>
+    <t>GANJAR</t>
+  </si>
+  <si>
+    <t>tereahmad17</t>
+  </si>
+  <si>
+    <t>1983-05-11</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1642,219 +1378,219 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4"/>
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="K3" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="13" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>115</v>
@@ -1863,7 +1599,7 @@
         <v>116</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>5</v>
@@ -1882,9 +1618,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>119</v>
@@ -1912,9 +1648,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>123</v>
@@ -1923,7 +1659,7 @@
         <v>124</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>5</v>
@@ -1942,285 +1678,285 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="K12" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="K13" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6"/>
-      <c r="B17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6"/>
+      <c r="B20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="K20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="13" t="s">
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>40</v>
@@ -2235,352 +1971,348 @@
         <v>6</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6"/>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="13" t="s">
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6"/>
+      <c r="B24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4"/>
+      <c r="B25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6"/>
+      <c r="B26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4"/>
+      <c r="B27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="6"/>
+      <c r="B28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4"/>
+      <c r="B29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4"/>
-      <c r="B28" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
-      <c r="B29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4"/>
-      <c r="B32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="6"/>
-      <c r="B33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>30</v>
@@ -2595,783 +2327,97 @@
         <v>6</v>
       </c>
       <c r="I33" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="E34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="13" t="s">
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="6"/>
-      <c r="B35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="E35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="K35" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="13" t="s">
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4"/>
-      <c r="B36" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="E36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="K36" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="6"/>
-      <c r="B37" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6"/>
-      <c r="B39" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="4"/>
-      <c r="B40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="6"/>
-      <c r="B41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="4"/>
-      <c r="B42" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6"/>
-      <c r="B43" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="B44" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="6"/>
-      <c r="B45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="4"/>
-      <c r="B46" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6"/>
-      <c r="B47" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="4"/>
-      <c r="B48" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="6"/>
-      <c r="B49" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="4"/>
-      <c r="B50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="6"/>
-      <c r="B51" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="4"/>
-      <c r="B52" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3383,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7478CC4C-2B14-4E92-AF42-E2ABB79725D7}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3492,10 +2538,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="C4">
         <v>81273862310</v>
@@ -3510,21 +2556,21 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="I4">
         <v>37746782</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="C5">
         <v>81273869014</v>
@@ -3539,21 +2585,21 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="I5">
         <v>37755065</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="C6">
         <v>81273869053</v>
@@ -3568,13 +2614,13 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="I6">
         <v>37755392</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3582,7 +2628,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="C7">
         <v>860962355730</v>
@@ -3600,21 +2646,21 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="I7">
         <v>37755507</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>838629533885</v>
@@ -3632,21 +2678,21 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>37755848</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="C9">
         <v>820442340813</v>
@@ -3664,13 +2710,13 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3678,7 +2724,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="C10">
         <v>810105191338</v>
@@ -3696,21 +2742,21 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="C11">
         <v>877143405143</v>
@@ -3728,24 +2774,24 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="I11">
         <v>37756923</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -3760,13 +2806,13 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3774,10 +2820,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -3792,13 +2838,13 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3806,10 +2852,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -3824,13 +2870,13 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3838,10 +2884,10 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -3856,13 +2902,13 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3870,10 +2916,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -3888,13 +2934,13 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3902,10 +2948,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -3920,24 +2966,24 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -3952,24 +2998,24 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -3984,13 +3030,13 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>37763327</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3998,10 +3044,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -4016,24 +3062,24 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20">
         <v>37763353</v>
       </c>
       <c r="J20" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -4048,13 +3094,13 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I21">
         <v>37763375</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4062,7 +3108,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="C22">
         <v>817599799257</v>
@@ -4080,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="I22">
         <v>37763402</v>
@@ -4094,7 +3140,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>832066022998</v>
@@ -4112,13 +3158,77 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>37765802</v>
       </c>
       <c r="J23">
         <v>3.7379831017829888E+17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24">
+        <v>818546668131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24">
+        <v>37965446</v>
+      </c>
+      <c r="J24">
+        <v>3180468489644200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25">
+        <v>802336946208</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25">
+        <v>37965578</v>
+      </c>
+      <c r="J25">
+        <v>3180914272544460</v>
       </c>
     </row>
   </sheetData>

--- a/data/registration_data.xlsx
+++ b/data/registration_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rauf\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A76025-5256-4248-AE4B-2D5B3470E94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A722BC1B-833C-4A6F-AB58-D938A9165F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="279">
   <si>
     <t>no</t>
   </si>
@@ -115,9 +118,6 @@
     <t>jln raya manggis</t>
   </si>
   <si>
-    <t>Rini Wati</t>
-  </si>
-  <si>
     <t>jln jeruk besar</t>
   </si>
   <si>
@@ -287,18 +287,6 @@
   </si>
   <si>
     <t>Dewi Lestari</t>
-  </si>
-  <si>
-    <t>dewi.susilo317</t>
-  </si>
-  <si>
-    <t>889243729004</t>
-  </si>
-  <si>
-    <t>1993-03-18</t>
-  </si>
-  <si>
-    <t>370613671932891096</t>
   </si>
   <si>
     <t>budi.hermawan696</t>
@@ -1322,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1378,345 +1366,345 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4"/>
+      <c r="B4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4"/>
-      <c r="B3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13" t="s">
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4"/>
+      <c r="B12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>26</v>
@@ -1731,112 +1719,112 @@
         <v>6</v>
       </c>
       <c r="I13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="K13" s="13" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="13" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="K15" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6"/>
-      <c r="B16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="13" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6"/>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>28</v>
@@ -1851,292 +1839,292 @@
         <v>6</v>
       </c>
       <c r="I17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="K18" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6"/>
+      <c r="B19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="K19" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="K20" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6"/>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
+      <c r="F21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4"/>
+      <c r="B22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6"/>
+      <c r="B23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="F23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6"/>
+      <c r="B25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4"/>
+      <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="13" t="s">
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6"/>
+      <c r="B27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="4"/>
-      <c r="B27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>32</v>
@@ -2151,110 +2139,109 @@
         <v>6</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="13" t="s">
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="13" t="s">
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>32</v>
@@ -2269,158 +2256,130 @@
         <v>6</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="13" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="K33" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="13" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="K35" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2431,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7478CC4C-2B14-4E92-AF42-E2ABB79725D7}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2538,10 +2497,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C4">
         <v>81273862310</v>
@@ -2556,21 +2515,21 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I4">
         <v>37746782</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5">
         <v>81273869014</v>
@@ -2585,21 +2544,21 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I5">
         <v>37755065</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C6">
         <v>81273869053</v>
@@ -2614,27 +2573,27 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I6">
         <v>37755392</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C7">
         <v>860962355730</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -2646,27 +2605,27 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I7">
         <v>37755507</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>838629533885</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -2678,27 +2637,27 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>37755848</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C9">
         <v>820442340813</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2710,21 +2669,21 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C10">
         <v>810105191338</v>
@@ -2742,21 +2701,21 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C11">
         <v>877143405143</v>
@@ -2774,24 +2733,24 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I11">
         <v>37756923</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2806,13 +2765,13 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2820,31 +2779,31 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2852,74 +2811,74 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
       <c r="I14" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
       <c r="I15" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -2934,59 +2893,59 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2998,56 +2957,56 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
       </c>
       <c r="I19">
         <v>37763327</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
@@ -3062,53 +3021,53 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20">
         <v>37763353</v>
       </c>
       <c r="J20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
       </c>
       <c r="I21">
         <v>37763375</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C22">
         <v>817599799257</v>
@@ -3126,7 +3085,7 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I22">
         <v>37763402</v>
@@ -3137,16 +3096,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>832066022998</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3158,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>37765802</v>
@@ -3169,10 +3128,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C24">
         <v>818546668131</v>
@@ -3190,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I24">
         <v>37965446</v>
@@ -3201,16 +3160,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C25">
         <v>802336946208</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -3222,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I25">
         <v>37965578</v>
